--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DF785-9E83-443F-A6AD-E2BDDF58F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,54 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Se produjo un error The type initializer for 'ConfigManager' threw an exception.</t>
+  </si>
+  <si>
+    <t>Account Number: 9876543210 Invalid account number. It must be exactly 10 digits. Falla la Primer Vez</t>
+  </si>
+  <si>
+    <t>Select Option: 3 Invalid option. Please try again.Falla al Seleccionar la Opcion 3 despues de fallar el Get</t>
+  </si>
+  <si>
+    <t>No valida que sea &gt; que cero</t>
+  </si>
+  <si>
+    <t>No suma el valor disponible de Sobregiro</t>
+  </si>
+  <si>
+    <t>id de la cuenta esta en camelCase</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>No Existe constante para el Valor del sobregiro</t>
+  </si>
+  <si>
+    <t>Dividir Deposito y Retiro</t>
+  </si>
+  <si>
+    <t>Deposito y Retiro hacen dos acciones</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>No repetir el objeto, mejor crearlo Static o Singleion</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
   </si>
 </sst>
 </file>
@@ -332,7 +362,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +405,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -662,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +710,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +737,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +746,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +763,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,10 +784,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +799,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +817,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +829,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +841,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,12 +862,15 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +880,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +916,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,12 +925,15 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -897,7 +943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +966,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +974,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +986,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -973,10 +1019,13 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1085,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1048,7 +1097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -1057,10 +1106,13 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1120,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -1089,10 +1141,13 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1101,10 +1156,10 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1182,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1136,10 +1191,13 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1221,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -1198,9 +1256,9 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1210,9 +1268,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1222,9 +1280,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1292,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,21 +1304,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1331,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1343,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,9 +1355,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1306,9 +1367,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1379,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1390,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.5000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCDD4D-5590-467E-B411-1617E27D6430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,42 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Account Created. Account Created. Press any key to continue… Mensaje repetido. Inserta 2 veces?</t>
+  </si>
+  <si>
+    <t>No las Propaga</t>
+  </si>
+  <si>
+    <t>Funciones muy largas</t>
+  </si>
+  <si>
+    <t>Funciones con doble responsabilidad</t>
+  </si>
+  <si>
+    <t>No uso App Settings</t>
   </si>
 </sst>
 </file>
@@ -662,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +724,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +733,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +750,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +798,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +810,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +822,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +834,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +846,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,9 +906,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -897,7 +918,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +927,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +944,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +952,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -973,10 +997,10 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1060,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1048,7 +1072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1092,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -1089,10 +1113,13 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1116,7 +1143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1154,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1136,10 +1163,13 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1181,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -1198,9 +1228,9 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1210,9 +1240,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1222,9 +1252,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,21 +1264,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1291,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1303,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1315,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,21 +1327,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1354,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1365,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.9000000000000021</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40B42B2-9595-4D46-82D8-4764BAAF9E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,45 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Codigo en Otro Proyecto</t>
+  </si>
+  <si>
+    <t>17 Warnings</t>
+  </si>
+  <si>
+    <t>Controla pero cambia el flujo debe volver a iniciar todo</t>
+  </si>
+  <si>
+    <t>No resta</t>
+  </si>
+  <si>
+    <t>No funciona para Cta Cte para activar sobregiro</t>
+  </si>
+  <si>
+    <t>No lo hace correctamtne</t>
+  </si>
+  <si>
+    <t>No hay Constantes</t>
   </si>
 </sst>
 </file>
@@ -662,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +700,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +726,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +739,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +756,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +801,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +819,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +831,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +855,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +888,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +918,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +956,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +964,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -973,10 +1009,13 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1027,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1063,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1075,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1239,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1251,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1263,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1273,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,9 +1285,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1297,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1309,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,21 +1321,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1306,9 +1348,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1360,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1371,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.0000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DF785-9E83-443F-A6AD-E2BDDF58F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07537AF9-4E8B-4076-9BC7-8C0D70B6A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,7 +405,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -696,10 +695,10 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +785,7 @@
       <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1019,7 +1018,7 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -1106,7 +1105,7 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -1141,7 +1140,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
@@ -1156,7 +1155,7 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,7 +1190,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E40" t="s">
         <v>64</v>
@@ -1313,7 +1312,7 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E50" t="s">
         <v>66</v>
@@ -1390,7 +1389,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>3.5000000000000018</v>
+        <v>4.1000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCDD4D-5590-467E-B411-1617E27D6430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0669C31-ECDB-4BDF-8832-51A728EADABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E40" t="s">
         <v>62</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E49" t="s">
         <v>63</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>3.9000000000000021</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40B42B2-9595-4D46-82D8-4764BAAF9E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0AF33A-6ADF-417C-9303-3BC29258BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="s">
         <v>64</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.0000000000000018</v>
+        <v>4.2000000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8D9C6-2D7A-4E30-AAA5-E96CD926BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,39 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>No hay Capas</t>
+  </si>
+  <si>
+    <t>Todo en un mismo Archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realiza operacion incorrecta en retiro </t>
+  </si>
+  <si>
+    <t>No valida longitud Maxima</t>
   </si>
 </sst>
 </file>
@@ -662,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +694,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +721,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +730,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +747,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +795,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +807,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,19 +819,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +846,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +906,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +944,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +952,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1060,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1048,7 +1072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1092,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1151,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -1198,21 +1222,24 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1222,9 +1249,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1261,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,9 +1273,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1285,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,21 +1297,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,9 +1324,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1306,9 +1336,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1348,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1359,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.1000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DB081-8C62-4F3C-AB50-FCD85ED05992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,24 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
   </si>
 </sst>
 </file>
@@ -665,10 +665,10 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA5F73-DDB8-45A4-A245-E1099D775A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,42 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Error al Depositar Deposit Amount: 100000 /Warning: Failed to update account 9876543210 in API. Server Response: Not Found /Deposit Success, pero si Deposita</t>
+  </si>
+  <si>
+    <t>Error al Retirar: Withdrawal Amount: 3000000 /  Withdrawal Success / Saldo 1000000</t>
+  </si>
+  <si>
+    <t>Error al validar sobregiro: Withdrawal Amount: 1500000 / Warning: Failed to update account 9876543210 in API. Server Response: Not Found / Warning: Failed to update account 1212121212 in API. Server Response: Not Found / Withdrawal Success</t>
+  </si>
+  <si>
+    <t>Son repetidos yconfusos</t>
+  </si>
+  <si>
+    <t>Error al Retirar: Withdrawal Amount: 300000 / Warning: Failed to update account 9876543210 in API. Server Response: Not Found / Withdrawal Success/ pero si retira</t>
   </si>
 </sst>
 </file>
@@ -332,7 +350,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +393,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -662,13 +681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +698,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +725,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +734,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +751,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +784,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +799,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +817,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +829,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +853,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +898,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +916,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +940,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +957,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +965,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +989,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1073,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1237,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1249,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1261,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1273,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1285,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1297,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1309,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1321,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1333,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1345,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1357,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1366,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.0000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED28411-0992-4549-ABAE-491FB8F4DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,45 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Error cargando al AppSettings no lo copia al destino</t>
+  </si>
+  <si>
+    <t>No guarda el Saldoinicial</t>
+  </si>
+  <si>
+    <t>Falla cuando la cuenta No existe y no muestra mensaje</t>
+  </si>
+  <si>
+    <t>No muestra mensaje al obtner cuentas que no existen</t>
+  </si>
+  <si>
+    <t>No adiciona el valor de sobregiro</t>
+  </si>
+  <si>
+    <t>No valida para cuentas corrientes</t>
   </si>
 </sst>
 </file>
@@ -662,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +700,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +726,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +739,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +756,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -738,10 +765,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,10 +780,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +798,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +810,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +822,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +834,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +846,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +858,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +915,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +945,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +962,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +970,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1042,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1078,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1242,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1254,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1266,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1278,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1290,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1302,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1314,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1326,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1338,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1350,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1362,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1371,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.0000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09261522-8F4F-47B9-9516-F4529BB57276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,42 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Falla diciendo que la cuenta no Existe y si existe</t>
+  </si>
+  <si>
+    <t>No funciona</t>
+  </si>
+  <si>
+    <t>No valida solo espacios</t>
+  </si>
+  <si>
+    <t>No Se puede Probar</t>
+  </si>
+  <si>
+    <t>No Adiciona el sobregiro</t>
   </si>
 </sst>
 </file>
@@ -662,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +724,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -714,11 +732,12 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="15"/>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +748,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +781,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +796,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +814,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,19 +826,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +853,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +886,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +901,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +916,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +960,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +968,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +992,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1016,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1028,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1064,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1076,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1240,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1252,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1264,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1276,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1288,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1300,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1312,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1324,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1336,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1348,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1360,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1369,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB62E51-1C1C-4CBC-A458-C93D306544A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC04D914-DA52-444A-A883-A9299E866685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,48 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Error en el Proyecto</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Crea varias veces la cuenta</t>
+  </si>
+  <si>
+    <t>Al retirar Crea una nueva cuenta</t>
+  </si>
+  <si>
+    <t>No valida longitud mayor a 50</t>
+  </si>
+  <si>
+    <t>No valida deposito si cuenta no existe</t>
+  </si>
+  <si>
+    <t>Genera Exception por fondos insuficientes</t>
+  </si>
+  <si>
+    <t>No muestra valor de sobregiro</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
   </si>
 </sst>
 </file>
@@ -662,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +703,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +729,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +742,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +759,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -738,10 +768,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +798,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +807,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +825,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,19 +837,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,19 +864,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +912,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +930,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +968,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +976,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1084,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1248,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1260,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1272,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1284,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1296,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1308,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1320,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1332,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1344,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1356,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1368,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1377,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.9000000000000021</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DC781-58B7-4384-A6B2-19CA5FC8D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,27 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>No hay Proyecto</t>
   </si>
 </sst>
 </file>
@@ -662,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +682,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +708,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -718,7 +724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +735,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +747,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +783,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +795,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +807,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +831,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +855,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -887,7 +893,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -1038,7 +1044,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1314,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F811F-B72D-4AE2-AEA4-AEC422F465D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,39 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Genera error al argar los Settings</t>
+  </si>
+  <si>
+    <t>Error al No seleccionar nada y presionar enter</t>
+  </si>
+  <si>
+    <t>No valida Vacio</t>
+  </si>
+  <si>
+    <t>No muestra para Vacios</t>
   </si>
 </sst>
 </file>
@@ -662,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +694,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +720,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +733,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +750,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +798,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,31 +810,37 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,12 +849,15 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,9 +915,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -897,7 +927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +936,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +953,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +961,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1069,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1233,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1245,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1257,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1267,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,9 +1279,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,21 +1291,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1318,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,9 +1330,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1306,9 +1342,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1354,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1365,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.0000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AEC9FD-1F27-4E88-8C7D-3B1A9DF9F580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,51 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Duplica la cuenta</t>
+  </si>
+  <si>
+    <t>No puede obtener la Cuenta</t>
+  </si>
+  <si>
+    <t>Sale cuenta No existe</t>
+  </si>
+  <si>
+    <t>No valida otro data</t>
+  </si>
+  <si>
+    <t>No valida Vacios</t>
+  </si>
+  <si>
+    <t>Error al obtener la cuenta</t>
+  </si>
+  <si>
+    <t>No valida valor sobregiro</t>
+  </si>
+  <si>
+    <t>Mensajes Incorectos al consultar</t>
   </si>
 </sst>
 </file>
@@ -662,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +706,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +733,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +742,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +759,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -738,10 +768,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,10 +783,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +798,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,46 +813,58 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,22 +873,28 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +918,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +930,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +942,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +966,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +983,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +991,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +1003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1027,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1063,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1099,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1263,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1275,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1287,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1299,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1311,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1323,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1335,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1347,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1359,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1371,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1383,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1392,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.4000000000000017</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A93EF4-E420-4A15-B267-7AA11173C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,33 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Error al cargar el appsettings</t>
+  </si>
+  <si>
+    <t>Mensaje Incorrecto</t>
+  </si>
+  <si>
+    <t>Mal Manejo de la Excepcion</t>
   </si>
 </sst>
 </file>
@@ -662,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +688,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +715,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +724,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +741,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +789,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +801,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +813,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +837,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,9 +897,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -897,7 +909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +918,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +935,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +943,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +991,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1051,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1215,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1227,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1239,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1249,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,9 +1261,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1273,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1285,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1297,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,21 +1309,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1336,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1347,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.3000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF4393-7EE2-4645-960B-6E734CCA9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,42 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Errores al generar referencia duplicadas desde la solucion</t>
+  </si>
+  <si>
+    <t>Errores de compilacion</t>
+  </si>
+  <si>
+    <t>Errores de Configuracion del Appsettings</t>
+  </si>
+  <si>
+    <t>No muestra mensaje al consultar</t>
+  </si>
+  <si>
+    <t>Manejo incorrecto del valor de sobregiro</t>
+  </si>
+  <si>
+    <t>Incorecto appSettings</t>
   </si>
 </sst>
 </file>
@@ -662,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +723,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +736,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -728,8 +752,11 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +804,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +816,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +828,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +840,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -825,9 +852,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,12 +909,15 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -897,7 +927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +936,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +953,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +961,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1069,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1233,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1245,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1257,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,21 +1267,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1294,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1306,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1318,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,9 +1330,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1306,9 +1342,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1354,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1365,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.2000000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828125D8-3130-4CDE-8776-402A48E61DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,48 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Error de Configuracion del Appsettings</t>
+  </si>
+  <si>
+    <t>Es confuso el manejo de los mensajes</t>
+  </si>
+  <si>
+    <t>Genera Error al Retirar</t>
+  </si>
+  <si>
+    <t>No se pudo probrar</t>
+  </si>
+  <si>
+    <t>Genera error al depositar</t>
+  </si>
+  <si>
+    <t>No valida Vacios</t>
+  </si>
+  <si>
+    <t>No valida otro numero o cero</t>
   </si>
 </sst>
 </file>
@@ -662,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +703,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +729,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +742,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +759,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +792,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,46 +807,58 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,22 +867,28 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -846,10 +897,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +912,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +927,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,19 +945,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +969,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +986,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +994,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +1006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1042,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1090,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1102,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1266,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1278,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1290,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1302,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1314,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1326,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1338,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1350,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1362,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1374,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1386,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1395,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.3000000000000016</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D328C7B3-155E-4C67-B026-EC2BAB6A18FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,33 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Incorrecto manejo de capas</t>
+  </si>
+  <si>
+    <t>Errores de Namespaces</t>
+  </si>
+  <si>
+    <t>No Se puede Ejecutar</t>
   </si>
 </sst>
 </file>
@@ -662,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +688,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +715,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +724,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +741,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -738,10 +750,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,10 +765,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +780,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,46 +795,58 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,22 +855,28 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -846,10 +885,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +900,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +915,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +930,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +960,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +977,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +985,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1069,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1093,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1048,7 +1105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1125,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1161,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1116,7 +1173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1184,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1208,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1232,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -1198,21 +1255,24 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1222,9 +1282,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1296,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1308,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1320,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1332,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1344,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1356,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1368,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1380,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1389,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>2.9000000000000012</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79FC96F-3A4C-448B-B220-2AE39F62FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,36 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>No muestra mensaje al crear</t>
+  </si>
+  <si>
+    <t>Generar una Excepcion</t>
+  </si>
+  <si>
+    <t>No Valida Vacios</t>
   </si>
 </sst>
 </file>
@@ -662,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +691,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +718,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +727,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +744,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,10 +765,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +780,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,46 +795,58 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,22 +855,28 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -846,10 +885,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +900,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +915,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -885,9 +933,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -896,8 +944,11 @@
       <c r="D19" s="15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,10 +957,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +974,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +982,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1042,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1090,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1254,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1266,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1278,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1290,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1302,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1314,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1326,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1338,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1350,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1362,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1374,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1383,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.3000000000000016</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D463232D-1318-4A45-B74B-847E8269FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,48 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Genera Error si la Cuenta ya existe</t>
+  </si>
+  <si>
+    <t>Genera Excepcion no controlada</t>
+  </si>
+  <si>
+    <t>Aborta varias veces</t>
+  </si>
+  <si>
+    <t>Genera Error si no tien Fondos</t>
+  </si>
+  <si>
+    <t>Incorecto uso de sobregiro</t>
+  </si>
+  <si>
+    <t>No se puede probar</t>
+  </si>
+  <si>
+    <t>Permite cero</t>
   </si>
 </sst>
 </file>
@@ -662,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +703,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +730,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +739,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +756,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -738,10 +765,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +795,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +804,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +822,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,9 +834,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -813,7 +846,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,12 +855,15 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +906,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +921,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +954,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +965,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +973,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1069,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1081,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1245,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1257,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1269,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1234,9 +1279,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1246,9 +1291,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1258,9 +1303,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1270,9 +1315,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1282,9 +1327,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1294,21 +1339,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1318,9 +1366,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1377,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A9342-AFE7-4BD7-8B6C-76F3EA7E8D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,36 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Error de configuracion no carga el wsettings</t>
+  </si>
+  <si>
+    <t>Incorecto el Manejo de Sobregiro</t>
+  </si>
+  <si>
+    <t>No valida Vacios</t>
   </si>
 </sst>
 </file>
@@ -662,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +691,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,8 +717,11 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +730,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +747,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,9 +795,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,31 +807,37 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,12 +846,15 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +909,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +953,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +961,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1069,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1233,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1245,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1257,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1269,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1281,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1293,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1305,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1317,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1329,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1341,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1353,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1362,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.0000000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DC781-58B7-4384-A6B2-19CA5FC8D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DB081-8C62-4F3C-AB50-FCD85ED05992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Implementacion del Menu</t>
-  </si>
-  <si>
-    <t>No hay Proyecto</t>
   </si>
 </sst>
 </file>
@@ -665,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,10 +679,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -699,7 +696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,11 +705,8 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -724,7 +718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -735,7 +729,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -747,7 +741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -759,7 +753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -771,7 +765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -783,7 +777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -795,7 +789,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -807,7 +801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -819,7 +813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -831,7 +825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -843,7 +837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -855,7 +849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DB081-8C62-4F3C-AB50-FCD85ED05992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,6 +147,21 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
+    <t>Clases Hijas para Saving and Checking</t>
+  </si>
+  <si>
+    <t>Factory para Construir</t>
+  </si>
+  <si>
+    <t>Lista Static de BankAccount</t>
+  </si>
+  <si>
+    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
+  </si>
+  <si>
+    <t>Clase Bank (Transaccional)</t>
+  </si>
+  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -162,6 +177,9 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
+    <t>Clase Abstracta para BankAccount</t>
+  </si>
+  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -181,24 +199,6 @@
   </si>
   <si>
     <t>Calificacion</t>
-  </si>
-  <si>
-    <t>Separacion por Capas (UI, Services, Entities)</t>
-  </si>
-  <si>
-    <t>Uso de Appsettings</t>
-  </si>
-  <si>
-    <t>Services: BankService (Methods)</t>
-  </si>
-  <si>
-    <t>Entities:BankAccount (Constructor)</t>
-  </si>
-  <si>
-    <t>Implementacion correcta del Server</t>
-  </si>
-  <si>
-    <t>Implementacion del Menu</t>
   </si>
 </sst>
 </file>
@@ -665,10 +665,10 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B212158-F2D8-4174-9020-29FA5B5EDADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -147,21 +147,6 @@
     <t>DIP: Dependency Inversion Principle</t>
   </si>
   <si>
-    <t>Clases Hijas para Saving and Checking</t>
-  </si>
-  <si>
-    <t>Factory para Construir</t>
-  </si>
-  <si>
-    <t>Lista Static de BankAccount</t>
-  </si>
-  <si>
-    <t>Sobrescritura de Funcion de Deposito y Retiro para Cta Cte</t>
-  </si>
-  <si>
-    <t>Clase Bank (Transaccional)</t>
-  </si>
-  <si>
     <t>Manejo de Errores y Validaciones</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>Valida Monto de Sobregiro (Retiro y Deposito)</t>
   </si>
   <si>
-    <t>Clase Abstracta para BankAccount</t>
-  </si>
-  <si>
     <t>Validar Numero Cuenta: numeros y no vacio</t>
   </si>
   <si>
@@ -199,6 +181,42 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>Separacion por Capas (UI, Services, Entities)</t>
+  </si>
+  <si>
+    <t>Uso de Appsettings</t>
+  </si>
+  <si>
+    <t>Services: BankService (Methods)</t>
+  </si>
+  <si>
+    <t>Entities:BankAccount (Constructor)</t>
+  </si>
+  <si>
+    <t>Implementacion correcta del Server</t>
+  </si>
+  <si>
+    <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Incorrecto el Uso de sobregiro</t>
+  </si>
+  <si>
+    <t>No Deposita</t>
+  </si>
+  <si>
+    <t>No Retira</t>
+  </si>
+  <si>
+    <t>No funciona</t>
+  </si>
+  <si>
+    <t>No valida Vacio</t>
   </si>
 </sst>
 </file>
@@ -662,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +724,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +733,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +750,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,10 +783,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -774,12 +798,15 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -789,9 +816,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -801,19 +828,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,12 +852,15 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -837,7 +870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -846,10 +879,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,10 +894,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,10 +909,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,22 +924,28 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +968,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +976,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +1000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,9 +1084,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -1200,7 +1248,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -1212,7 +1260,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -1224,7 +1272,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -1236,7 +1284,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -1248,7 +1296,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -1260,7 +1308,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -1272,7 +1320,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -1284,7 +1332,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -1296,7 +1344,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -1308,7 +1356,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -1320,7 +1368,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
@@ -1329,7 +1377,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.6000000000000019</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DB081-8C62-4F3C-AB50-FCD85ED05992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF7E41F-2FB0-4DB4-AD79-4A9AC46AD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Implementacion del Menu</t>
+  </si>
+  <si>
+    <t>No era Manejo de archivos sino llamado a API</t>
+  </si>
+  <si>
+    <t>Incorecto el manejo del sobregiro</t>
+  </si>
+  <si>
+    <t>Permite Cero</t>
+  </si>
+  <si>
+    <t>El llamado era por servicio no total</t>
   </si>
 </sst>
 </file>
@@ -662,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +691,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +718,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,10 +727,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -729,7 +744,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -753,7 +768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -777,7 +792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -789,7 +804,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -801,7 +816,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -813,7 +828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -822,10 +837,13 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -837,7 +855,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,7 +867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -861,7 +879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -873,7 +891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -882,10 +900,13 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -894,10 +915,13 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -909,7 +933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,7 +944,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +952,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -940,7 +964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -952,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1258,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
@@ -1255,10 +1279,13 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>41</v>
       </c>
@@ -1282,7 +1309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>48</v>
       </c>
@@ -1306,7 +1333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -1318,7 +1345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1356,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.1000000000000014</v>
       </c>
     </row>
   </sheetData>
